--- a/DATOS/RESULTADOS/salario_real_inquilinos_ccaa.xlsx
+++ b/DATOS/RESULTADOS/salario_real_inquilinos_ccaa.xlsx
@@ -424,7 +424,7 @@
         <v>10.85227832372853</v>
       </c>
       <c r="H2">
-        <v>10.43720886456792</v>
+        <v>10.3887249116102</v>
       </c>
     </row>
     <row r="3">
@@ -452,7 +452,7 @@
         <v>12.0113820250328</v>
       </c>
       <c r="H3">
-        <v>11.45932079300212</v>
+        <v>11.38948747670552</v>
       </c>
     </row>
     <row r="4">
@@ -480,7 +480,7 @@
         <v>12.92462966964456</v>
       </c>
       <c r="H4">
-        <v>12.00494182311013</v>
+        <v>11.92926297162149</v>
       </c>
     </row>
     <row r="5">
@@ -508,7 +508,7 @@
         <v>11.29345432780651</v>
       </c>
       <c r="H5">
-        <v>11.00214342228594</v>
+        <v>10.95093022876864</v>
       </c>
     </row>
     <row r="6">
@@ -536,7 +536,7 @@
         <v>10.20992804321656</v>
       </c>
       <c r="H6">
-        <v>9.913925814876924</v>
+        <v>9.849122963011057</v>
       </c>
     </row>
     <row r="7">
@@ -564,7 +564,7 @@
         <v>11.30057569237887</v>
       </c>
       <c r="H7">
-        <v>10.68255412860555</v>
+        <v>10.64535675891659</v>
       </c>
     </row>
     <row r="8">
@@ -592,7 +592,7 @@
         <v>11.49036042960194</v>
       </c>
       <c r="H8">
-        <v>11.06963565830421</v>
+        <v>11.01244336109707</v>
       </c>
     </row>
     <row r="9">
@@ -620,7 +620,7 @@
         <v>10.884339034239</v>
       </c>
       <c r="H9">
-        <v>10.48069139339449</v>
+        <v>10.40394883131215</v>
       </c>
     </row>
     <row r="10">
@@ -648,7 +648,7 @@
         <v>13.63033725579048</v>
       </c>
       <c r="H10">
-        <v>13.00573681194053</v>
+        <v>12.96039803917507</v>
       </c>
     </row>
     <row r="11">
@@ -676,7 +676,7 @@
         <v>11.15216978239952</v>
       </c>
       <c r="H11">
-        <v>10.62994533969839</v>
+        <v>10.54511212492152</v>
       </c>
     </row>
     <row r="12">
@@ -704,7 +704,7 @@
         <v>10.57206023393645</v>
       </c>
       <c r="H12">
-        <v>10.34380937593213</v>
+        <v>10.2869594890205</v>
       </c>
     </row>
     <row r="13">
@@ -732,7 +732,7 @@
         <v>11.39529824872466</v>
       </c>
       <c r="H13">
-        <v>11.05607597956707</v>
+        <v>11.01746589743031</v>
       </c>
     </row>
     <row r="14">
@@ -760,7 +760,7 @@
         <v>14.87623430745071</v>
       </c>
       <c r="H14">
-        <v>14.05264013661385</v>
+        <v>13.88131005354286</v>
       </c>
     </row>
     <row r="15">
@@ -788,7 +788,7 @@
         <v>11.14336488433337</v>
       </c>
       <c r="H15">
-        <v>10.72185212517607</v>
+        <v>10.6675283336404</v>
       </c>
     </row>
     <row r="16">
@@ -816,7 +816,7 @@
         <v>14.0762921431651</v>
       </c>
       <c r="H16">
-        <v>13.48291718525578</v>
+        <v>13.4013689896905</v>
       </c>
     </row>
     <row r="17">
@@ -844,7 +844,7 @@
         <v>15.40554385072419</v>
       </c>
       <c r="H17">
-        <v>14.6925688922348</v>
+        <v>14.60795920176889</v>
       </c>
     </row>
     <row r="18">
@@ -872,7 +872,7 @@
         <v>11.61086788535058</v>
       </c>
       <c r="H18">
-        <v>11.25233061822799</v>
+        <v>11.1941193388301</v>
       </c>
     </row>
   </sheetData>
